--- a/testData/input10.XLSX
+++ b/testData/input10.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\zohoCrmAutomation\crm\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBB7FD-2861-4371-BF85-6EF4FBB84886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533CDB8-2B86-4A90-8ECE-5C2A23FBF20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="672" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="672" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSet" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="126">
   <si>
     <t>Url Link</t>
   </si>
@@ -412,16 +412,13 @@
     <t>Product</t>
   </si>
   <si>
-    <t>9squarezoho@gmail.com</t>
-  </si>
-  <si>
-    <t>9squarezoho1@gmail.com</t>
-  </si>
-  <si>
     <t>Sales orders details.</t>
   </si>
   <si>
     <t>This all the information related to Sales Orders Details</t>
+  </si>
+  <si>
+    <t>9squarezoho2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1631,7 @@
         <v>75</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1716,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2025,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BEBDFA-34EF-4BB2-A2AE-B1730C57DA23}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2052,10 +2049,10 @@
         <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20">
-        <v>9934088789</v>
+        <v>125</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +2069,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2098,7 +2095,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>39</v>
@@ -2117,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22115B01-F6C3-46FA-A564-198663417A5A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2144,7 +2141,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>39</v>
@@ -2190,7 +2187,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>39</v>
